--- a/Example Excel Files/level1.xlsx
+++ b/Example Excel Files/level1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7201E4A6-18EB-48BB-A6D8-83DBC6CCCE0E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C027F6E1-6DDF-4C73-916D-E91E2787586D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Department</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>naman</t>
-  </si>
-  <si>
-    <t>1ms15cs0742</t>
-  </si>
-  <si>
-    <t>1ms15cs0743</t>
-  </si>
-  <si>
-    <t>1ms15cs0744</t>
-  </si>
-  <si>
-    <t>1ms15cs0745</t>
   </si>
   <si>
     <t>test@gmail.com</t>
@@ -403,7 +391,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +425,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -456,17 +444,17 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>7760620782</v>
+        <v>7360620782</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -476,17 +464,17 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>7760620781</v>
+        <v>8960620781</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -496,17 +484,17 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>7760620780</v>
+        <v>9060620780</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -516,17 +504,17 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>7760620710</v>
+        <v>8970620710</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -535,8 +523,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F1875005-486B-4E47-A76B-B2C9752F4AE3}"/>
+    <hyperlink ref="B3:B6" r:id="rId2" display="test@gmail.com" xr:uid="{B9C145F3-8674-4CB8-9530-A915CDA00FBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Example Excel Files/level1.xlsx
+++ b/Example Excel Files/level1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C027F6E1-6DDF-4C73-916D-E91E2787586D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8B0776EC-3DAE-4A96-952B-A3BA2CEE6266}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Department</t>
   </si>
@@ -40,9 +40,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>cse</t>
-  </si>
-  <si>
     <t>naman</t>
   </si>
   <si>
@@ -59,6 +56,21 @@
   </si>
   <si>
     <t>dfdf</t>
+  </si>
+  <si>
+    <t>PassWord</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Manager</t>
   </si>
 </sst>
 </file>
@@ -391,13 +403,16 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -422,102 +437,102 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>7760620783</v>
       </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>7360620782</v>
       </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>8960620781</v>
       </c>
-      <c r="F4">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>9060620780</v>
       </c>
-      <c r="F5">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>8970620710</v>
       </c>
-      <c r="F6">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
